--- a/data/5.translations/lookUp_translations.xlsx
+++ b/data/5.translations/lookUp_translations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositaries\1.work\IAEA3\data\5.translations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999295DE-160B-4DF6-93C4-2FBBAD7F13E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58E4E48-CAF7-4BB2-8F4B-955F5B906F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13068" yWindow="17172" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{82ACAF43-4028-4771-BCFF-180DFCC2D1D2}"/>
+    <workbookView xWindow="3210" yWindow="6975" windowWidth="21600" windowHeight="11280" activeTab="1" xr2:uid="{82ACAF43-4028-4771-BCFF-180DFCC2D1D2}"/>
   </bookViews>
   <sheets>
     <sheet name="questionnaires" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>questionnaire</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>Russian</t>
+  </si>
+  <si>
+    <t>Arabic</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1Ny8tHpmw9eaWXnyLOJhmlMQjsmT_N1niweHtsLWcb2k/edit#gid=0</t>
   </si>
 </sst>
 </file>
@@ -478,10 +484,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4236F25-3C44-409C-B536-5B8443E82B12}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,11 +539,23 @@
         <v>13</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" location="gid=0" xr:uid="{D1F0E7C9-4D48-4F74-8DB5-1EEFDD4EAA1B}"/>
     <hyperlink ref="B3" r:id="rId2" location="gid=0" xr:uid="{40FA7821-EEC7-4447-86DD-DE7F5201912E}"/>
     <hyperlink ref="B4" r:id="rId3" location="gid=0" xr:uid="{E7A24CBF-E6FA-4C94-9608-12300E003D6F}"/>
+    <hyperlink ref="B5" r:id="rId4" location="gid=0" xr:uid="{7FE3D13E-0C1E-48BD-B677-AB6B40FF0B5C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
